--- a/charts_output/charts_report.xlsx
+++ b/charts_output/charts_report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -27,33 +27,6 @@
     <t>Jan Kowalski</t>
   </si>
   <si>
-    <t>Jan2 Kowalski</t>
-  </si>
-  <si>
-    <t>Jan3 Kowalski</t>
-  </si>
-  <si>
-    <t>Jan4 Kowalski</t>
-  </si>
-  <si>
-    <t>Jan5 Kowalski</t>
-  </si>
-  <si>
-    <t>Michal Kowalski</t>
-  </si>
-  <si>
-    <t>Michal2 Kowalski</t>
-  </si>
-  <si>
-    <t>Michal3 Kowalski</t>
-  </si>
-  <si>
-    <t>Michal4 Kowalski</t>
-  </si>
-  <si>
-    <t>Michal5 Kowalski</t>
-  </si>
-  <si>
     <t>Student</t>
   </si>
   <si>
@@ -64,6 +37,9 @@
   </si>
   <si>
     <t>NOTPRESENT</t>
+  </si>
+  <si>
+    <t>JUSTIFIED</t>
   </si>
   <si>
     <t>Date</t>
@@ -560,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A16:B26"/>
+  <dimension ref="A16:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,78 +558,6 @@
         <v>4.428571428571429</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -662,27 +566,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A16:D26"/>
+  <dimension ref="A16:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -695,130 +602,7 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+      <c r="E17">
         <v>0</v>
       </c>
     </row>
@@ -838,10 +622,10 @@
   <sheetData>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">

--- a/charts_output/charts_report.xlsx
+++ b/charts_output/charts_report.xlsx
@@ -10,13 +10,17 @@
     <sheet name="Srednie" sheetId="1" r:id="rId1"/>
     <sheet name="Obecnosc" sheetId="2" r:id="rId2"/>
     <sheet name="Oceny_Jan_Kowalski" sheetId="3" r:id="rId3"/>
+    <sheet name="Oceny_Anna_Nowak" sheetId="4" r:id="rId4"/>
+    <sheet name="Oceny_Krzysztof_Wiśniewski" sheetId="5" r:id="rId5"/>
+    <sheet name="Oceny_Maria_Dąbrowska" sheetId="6" r:id="rId6"/>
+    <sheet name="Oceny_Tomasz_Zieliński" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -25,6 +29,33 @@
   </si>
   <si>
     <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Krzysztof Wiśniewski</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>Tomasz Zieliński</t>
+  </si>
+  <si>
+    <t>Michal Kowalski</t>
+  </si>
+  <si>
+    <t>Michal2 Kowalski</t>
+  </si>
+  <si>
+    <t>Michal3 Kowalski</t>
+  </si>
+  <si>
+    <t>Michal4 Kowalski</t>
+  </si>
+  <si>
+    <t>Michal5 Kowalski</t>
   </si>
   <si>
     <t>Student</t>
@@ -226,6 +257,178 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="grades_Jan_Kowalski.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="grades_Anna_Nowak.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="grades_Krzysztof_Wiśniewski.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="grades_Maria_Dąbrowska.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>7629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="grades_Tomasz_Zieliński.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -536,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A16:B17"/>
+  <dimension ref="A16:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,7 +758,79 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>4.428571428571429</v>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -566,7 +841,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A16:E17"/>
+  <dimension ref="A16:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -574,19 +849,19 @@
   <sheetData>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -594,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -603,6 +878,159 @@
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
     </row>
@@ -614,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A16:B23"/>
+  <dimension ref="A16:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -622,15 +1050,15 @@
   <sheetData>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45684</v>
+        <v>45778</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -638,7 +1066,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45801</v>
+        <v>45779</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -646,7 +1074,69 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45801</v>
+        <v>45780</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A16:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>45779</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>45780</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>45781</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -654,34 +1144,204 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45801</v>
+        <v>45782</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45801</v>
+        <v>45783</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A16:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>45780</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B19">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2">
-        <v>45801</v>
-      </c>
-      <c r="B22">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A16:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>45781</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2">
-        <v>45801</v>
-      </c>
-      <c r="B23">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A16:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>45782</v>
+      </c>
+      <c r="B17">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>45783</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>45784</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>45785</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>45786</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
